--- a/backend/output_timetables/sem7_CSE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem7_CSE_pre_mid_timetable.xlsx
@@ -11,6 +11,9 @@
     <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Verification_A" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Verification_B" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="LTPSC_Compliance" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Executive_Summary" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Course_Summary" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1046,7 +1049,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>–</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1093,7 +1096,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>–</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1253,7 +1256,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>–</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1300,7 +1303,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>–</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1378,6 +1381,1820 @@
       <c r="I4" t="inlineStr">
         <is>
           <t>--</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Required LTPSC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Required (L/T/P)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Section A (L/T/P)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Section B (L/T/P)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures Status</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials Status</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Labs Status</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Overall Compliance</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Basic Information</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Branch: CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Basic Information</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Generation Date</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2025-12-13 16:20</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Timetable generation timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Course Statistics</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Total Courses</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Core: 0, Elective: 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LTPSC Compliance</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Compliance Rate</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0/2 courses fully compliant</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Room Utilization</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rooms Used</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0/35</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Utilization: 0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Schedule Density</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Time Slot Utilization</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>17.1%</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>A: 17.1%, B: 17.1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Quality Assessment</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Overall Quality</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[WARN] NEEDS REVIEW</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Score: 29.1/100</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Schedule Type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures/Week</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials/Week</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Practicals/Week</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Half Semester</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Post mid-sem</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Inclusion Reasoning</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Cybersecurity techniques</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Rajendra Hegadi</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Reinforcement learning</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Dibyajyothi</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CS367</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Image processing and computer vision</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Vivekraj</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>health care data analytics</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Girish G N</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Generative AI</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Chinmayananda A</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Hands on CMOS analog and RF circuit design</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Usability testing</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Sandesh Phalke</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Quantum AI + Quantum Gen AI: Generative models on quantum platform</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Aswath Babu</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>DevOPS and its application</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Shirshendu Layek</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Agentic AI</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Sunil Saumya</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Information retrieval</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Krishnendu</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Cloud SRE and security</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Malay Kumar</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>CS474</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Software defined network</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Jagadeesha R Bhat</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>AI for cybersecurity</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>7</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Finance and accounting</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Anushree</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Operation research</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Anand B</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Energy efficient neural networks</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Jagadish D N</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>7</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>CS498</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Mini Project</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0-0-0-8-2</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Animesh Roy, Pramod Yelmewad</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem7_CSE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem7_CSE_pre_mid_timetable.xlsx
@@ -11,9 +11,14 @@
     <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Verification_A" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Verification_B" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="LTPSC_Compliance" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Executive_Summary" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Course_Summary" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Classroom_Allocation" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="LTPSC_Compliance" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Executive_Summary" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Course_Summary" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Basket_Allocation" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Basket_Courses" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Classroom_Utilization" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Basket_Course_Allocations" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -499,7 +504,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
     </row>
@@ -531,7 +536,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
     </row>
@@ -595,7 +600,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
     </row>
@@ -607,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B8 (Tutorial)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -694,6 +699,2155 @@
           <t>Free</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture Slots</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Slot</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Courses in Basket</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Both Sections</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Fri 09:00-10:30, Fri 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Mon 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Fri 09:00-10:30, Fri 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Mon 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>5</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Fri 09:00-10:30, Fri 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Mon 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Fri 09:00-10:30, Fri 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Mon 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Fri 09:00-10:30, Fri 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Mon 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Fri 10:30-12:00, Fri 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Fri 10:30-12:00, Fri 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Fri 10:30-12:00, Fri 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Fri 10:30-12:00, Fri 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>4</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Weekly Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Daily Avg Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Exam Sessions</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization Rate (%)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>C103</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>library</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Computers, Books</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Examination room</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Tables, Chairs</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C301</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Physics Lab</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Physics Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>C306</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>C307</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C308</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>L401</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Allocated Rooms</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>C004, C102, C202, L404, L405</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>C004, C104, C203, L405, L406</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>C004, C101, C303, L406, L407</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>C004, C101, C104, C305, L403, L407</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>C004, C102, C202, L402, L404, L408</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>C004, C203, C205, L403, L405</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>C004, C204, C302, L404, L406</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -774,7 +2928,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
     </row>
@@ -806,7 +2960,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
     </row>
@@ -870,7 +3024,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
     </row>
@@ -882,7 +3036,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B8 (Tutorial)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -981,7 +3135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1086,7 +3240,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B7**</t>
+          <t>**ELECTIVE_B8**</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1133,45 +3287,139 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>**ELECTIVE_B7**</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Elective Basket</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>**ELECTIVE_B9**</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Elective Basket</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>**SUMMARY**</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Total Courses: 2</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Total Courses: 4</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Complete: 0</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Rate: 0.0%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Lectures: 4</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Lectures: 7</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Labs: 0</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>[WARN] 2 issues</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[WARN] 4 issues</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
@@ -1188,7 +3436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1293,7 +3541,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B7**</t>
+          <t>**ELECTIVE_B8**</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1340,45 +3588,139 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>**ELECTIVE_B7**</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Elective Basket</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>**ELECTIVE_B9**</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Elective Basket</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>**SUMMARY**</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Total Courses: 2</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Total Courses: 4</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Complete: 0</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Rate: 0.0%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Lectures: 4</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Lectures: 7</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Labs: 0</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>[WARN] 2 issues</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[WARN] 4 issues</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
@@ -1395,7 +3737,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:M85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1406,171 +3748,5359 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>Semester</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>Branch</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Required LTPSC</t>
+          <t>Section</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Required (L/T/P)</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Section A (L/T/P)</t>
+          <t>Time Slot</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Section B (L/T/P)</t>
+          <t>Room Type</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Lectures Status</t>
+          <t>Capacity</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Tutorials Status</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Labs Status</t>
+          <t>Conflict</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Overall Compliance</t>
+          <t>Allocation Type</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Notes</t>
+          <t>Basket</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>course</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>ELECTIVE_B6</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>3-0-0-0-3</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3/0/0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2/1/0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2/1/0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>[FAIL]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>[OK]</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>[OK]</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>[WARN] PARTIAL</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Check scheduling</t>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>DS456</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>ELECTIVE_B7</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>3-0-0-0-3</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3/0/0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2/1/0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2/1/0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>[FAIL]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>[OK]</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>[OK]</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>[WARN] PARTIAL</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Check scheduling</t>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>7</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>7</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>7</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>7</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>7</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>7</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>7</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>7</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>7</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>7</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>7</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>7</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>7</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>7</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>7</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>7</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>7</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>7</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>7</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>7</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>7</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>7</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>7</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>7</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>7</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>7</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>7</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>7</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>7</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>7</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>7</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>7</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>7</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>7</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>7</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>7</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>7</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>7</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>7</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>7</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>7</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>7</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>7</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>7</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I58" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>7</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I59" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>7</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I60" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>7</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I61" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>7</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I62" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>7</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I63" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>7</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I64" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>7</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>7</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I66" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>7</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I67" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>7</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I68" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>7</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I69" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>7</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I70" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>7</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I71" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>7</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I72" t="b">
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>7</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I73" t="b">
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>7</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I74" t="b">
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>7</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I75" t="b">
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>7</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I76" t="b">
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>7</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I77" t="b">
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>7</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I78" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>7</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>7</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>7</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I81" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>7</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I82" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>7</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I83" t="b">
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>7</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I84" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>7</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I85" t="b">
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>CS473</t>
         </is>
       </c>
     </row>
@@ -1580,6 +9110,310 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Required LTPSC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Required (L/T/P)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Section A (L/T/P)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Section B (L/T/P)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures Status</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials Status</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Labs Status</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Overall Compliance</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1/0/0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1/0/0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1648,7 +9482,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-12-13 16:20</t>
+          <t>2026-01-18 11:33</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1669,11 +9503,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Core: 0, Elective: 2</t>
+          <t>Core: 0, Elective: 4</t>
         </is>
       </c>
     </row>
@@ -1695,7 +9529,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0/2 courses fully compliant</t>
+          <t>0/4 courses fully compliant</t>
         </is>
       </c>
     </row>
@@ -1712,7 +9546,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0/35</t>
+          <t>0/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1734,12 +9568,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>17.1%</t>
+          <t>28.6%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A: 17.1%, B: 17.1%</t>
+          <t>A: 28.6%, B: 28.6%</t>
         </is>
       </c>
     </row>
@@ -1761,7 +9595,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Score: 29.1/100</t>
+          <t>Score: 32.6/100</t>
         </is>
       </c>
     </row>
@@ -1770,13 +9604,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1890,10 +9724,8 @@
           <t>Cybersecurity techniques</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="F2" t="n">
+        <v>4</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -1964,10 +9796,8 @@
           <t>Reinforcement learning</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="F3" t="n">
+        <v>4</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -2030,18 +9860,16 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CS367</t>
+          <t>DS401</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Image processing and computer vision</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>health care data analytics</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>4</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -2059,7 +9887,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Vivekraj</t>
+          <t>Girish G N</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -2104,18 +9932,16 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>health care data analytics</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>Generative AI</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -2133,7 +9959,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Girish G N</t>
+          <t>Chinmayananda A</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -2178,18 +10004,16 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Generative AI</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>Hands on CMOS analog and RF circuit design</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -2207,7 +10031,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Chinmayananda A</t>
+          <t>Rajesh Kumar</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -2252,18 +10076,16 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>EC465</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Hands on CMOS analog and RF circuit design</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>User Interactions and Experience Design</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>4</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -2281,7 +10103,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Rajesh Kumar</t>
+          <t>Sandesh Phalke</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -2326,18 +10148,16 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Usability testing</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>Quantum AI + Quantum Gen AI: Generative models on quantum platform</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>4</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -2355,7 +10175,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Sandesh Phalke</t>
+          <t>Aswath Babu</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -2400,18 +10220,16 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PH454</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Quantum AI + Quantum Gen AI: Generative models on quantum platform</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>DevOPS and its application</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>4</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -2429,7 +10247,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Aswath Babu</t>
+          <t>Shirshendu Layek</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -2474,18 +10292,16 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>DS458</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>DevOPS and its application</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>Agentic AI</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>4</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -2503,7 +10319,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Shirshendu Layek</t>
+          <t>Sunil Saumya</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -2548,18 +10364,16 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>DS458</t>
+          <t>CS468</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Agentic AI</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>Information retrieval</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>4</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -2577,7 +10391,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Sunil Saumya</t>
+          <t>Krishnendu</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -2622,18 +10436,16 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CS468</t>
+          <t>CS473</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Information retrieval</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>Cloud SRE and security</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>4</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -2651,7 +10463,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Krishnendu</t>
+          <t>Malay Kumar</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -2696,18 +10508,16 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CS473</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Cloud SRE and security</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>AI for cybersecurity</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>4</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -2725,7 +10535,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Malay Kumar</t>
+          <t>Abdul Wahid</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -2770,18 +10580,16 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CS474</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Software defined network</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>Finance and accounting</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>4</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -2799,7 +10607,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Jagadeesha R Bhat</t>
+          <t>Anushree</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -2844,18 +10652,16 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CS470</t>
+          <t>MA452</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>AI for cybersecurity</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>Operation research</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>4</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -2873,7 +10679,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Abdul Wahid</t>
+          <t>Anand B</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -2918,18 +10724,16 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>DS102</t>
+          <t>EC463</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Finance and accounting</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>Energy efficient neural networks</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>4</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -2947,7 +10751,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Anushree</t>
+          <t>Jagadish D N</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -2992,209 +10796,305 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>MA452</t>
+          <t>CS498</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Operation research</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>Mini Project</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>0-0-0-8-2</t>
         </is>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Animesh Roy, Pramod Yelmewad</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Courses in Basket</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Number of Courses</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Sections</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Branches</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>DS456, EC456, DS401</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
         <v>3</v>
       </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Anand B</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Pre-Mid</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>7</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>EC463</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Energy efficient neural networks</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>3</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Jagadish D N</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Pre-Mid</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>7</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>CS498</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Mini Project</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0-0-0-8-2</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Animesh Roy, Pramod Yelmewad</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common)</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Semester 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CS457, DS458, CS468, CS473</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Semester 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>EC462, EC465, ASD352, PH454, DE451</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Semester 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>CS470, DS102, MA452, EC463</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Semester 7</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem7_CSE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem7_CSE_pre_mid_timetable.xlsx
@@ -2626,7 +2626,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004, C102, C202, L404, L405</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C004, C104, C203, L405, L406</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2660,7 +2660,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C004, C101, C303, L406, L407</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2677,7 +2677,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C004, C101, C104, C305, L403, L407</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2694,7 +2694,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C004, C102, C202, L402, L404, L408</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2711,7 +2711,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C004, C203, C205, L403, L405</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2728,7 +2728,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C004, C204, C302, L404, L406</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3737,7 +3737,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M85"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3833,7 +3833,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -3896,7 +3896,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -3959,7 +3959,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -4022,22 +4022,22 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I5" t="b">
@@ -4055,7 +4055,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -4085,22 +4085,22 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I6" t="b">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -4148,22 +4148,22 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I7" t="b">
@@ -4181,7 +4181,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -4211,22 +4211,22 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I8" t="b">
@@ -4244,7 +4244,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -4274,22 +4274,22 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I9" t="b">
@@ -4307,7 +4307,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -4337,22 +4337,22 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I10" t="b">
@@ -4370,7 +4370,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -4400,22 +4400,22 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I11" t="b">
@@ -4433,7 +4433,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -4463,22 +4463,22 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I12" t="b">
@@ -4496,7 +4496,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -4526,22 +4526,22 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I13" t="b">
@@ -4559,7 +4559,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -4589,22 +4589,22 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I14" t="b">
@@ -4622,7 +4622,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -4652,7 +4652,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -4715,7 +4715,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -4778,7 +4778,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -4841,7 +4841,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -4904,7 +4904,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -4967,7 +4967,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -5030,7 +5030,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -5093,7 +5093,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -5146,7 +5146,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -5350,17 +5350,17 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I26" t="b">
@@ -5378,7 +5378,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -5398,7 +5398,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -5413,17 +5413,17 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I27" t="b">
@@ -5441,7 +5441,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -5461,7 +5461,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -5476,17 +5476,17 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I28" t="b">
@@ -5504,7 +5504,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -5524,7 +5524,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -5539,17 +5539,17 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I29" t="b">
@@ -5567,7 +5567,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -5587,7 +5587,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -5650,7 +5650,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -5713,7 +5713,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -5776,7 +5776,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -5839,7 +5839,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -5902,7 +5902,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -5965,7 +5965,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -5980,17 +5980,17 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I36" t="b">
@@ -6008,7 +6008,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -6028,7 +6028,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -6043,17 +6043,17 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I37" t="b">
@@ -6071,7 +6071,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -6106,17 +6106,17 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I38" t="b">
@@ -6134,7 +6134,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -6154,7 +6154,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -6169,17 +6169,17 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I39" t="b">
@@ -6197,7 +6197,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -6232,17 +6232,17 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I40" t="b">
@@ -6260,7 +6260,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -6295,17 +6295,17 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I41" t="b">
@@ -6323,7 +6323,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -6343,7 +6343,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -6406,7 +6406,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -6453,2652 +6453,6 @@
         </is>
       </c>
       <c r="M43" t="inlineStr">
-        <is>
-          <t>CS473</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>7</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>DS456</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>7</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>EC456</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>7</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>DS401</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>7</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>CS457</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>7</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>DS458</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>7</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>CS468</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>7</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>CS473</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>7</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>L404</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>DS456</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>7</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>L405</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>EC456</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>7</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>DS401</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>7</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>L405</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>DS456</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>7</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>EC456</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>7</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>L407</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>DS401</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>7</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>CS457</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>7</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>DS458</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>7</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>CS468</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>7</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>CS473</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>7</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>CS457</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>7</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>DS458</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>7</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>CS468</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>7</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>CS473</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>7</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>DS456</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>7</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I66" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>EC456</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>7</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>DS401</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>7</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>CS457</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>7</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>DS458</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>7</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>C205</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>CS468</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>7</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I71" t="b">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>C302</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>CS473</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>7</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>DS456</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>7</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I73" t="b">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>EC456</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>7</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>DS401</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>7</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>DS456</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>7</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I76" t="b">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>EC456</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>7</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I77" t="b">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>DS401</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>7</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I78" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>L407</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>CS457</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>7</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>DS458</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>7</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>CS468</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>7</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I81" t="b">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>CS473</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>7</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I82" t="b">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>CS457</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>7</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I83" t="b">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>DS458</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>7</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I84" t="b">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>CS468</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>7</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I85" t="b">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M85" t="inlineStr">
         <is>
           <t>CS473</t>
         </is>

--- a/backend/output_timetables/sem7_CSE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem7_CSE_pre_mid_timetable.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,17 +479,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -504,24 +504,24 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -543,118 +543,118 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7 (Tutorial)</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B8 (Tutorial)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B6 (Tutorial)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B7 (Tutorial)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -671,30 +671,94 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
@@ -711,7 +775,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1023,7 +1087,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -1058,7 +1122,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1093,7 +1157,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1128,7 +1192,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1144,26 +1208,26 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Fri 09:00-10:30, Fri 10:30-12:00</t>
+          <t>Fri 10:30-12:00, Fri 13:00-14:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Mon 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1184,7 +1248,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CS470</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1219,7 +1283,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DS102</t>
+          <t>MA452</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1254,7 +1318,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MA452</t>
+          <t>EC463</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1276,41 +1340,6 @@
         </is>
       </c>
       <c r="G16" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>EC463</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Fri 10:30-12:00, Fri 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Tue 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>4</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2626,7 +2655,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2672,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
@@ -2677,7 +2706,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001, C002, C003, C101</t>
         </is>
       </c>
     </row>
@@ -2694,7 +2723,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001, C002, C004, C101</t>
         </is>
       </c>
     </row>
@@ -2711,7 +2740,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001, C003, C004, C101</t>
         </is>
       </c>
     </row>
@@ -2728,7 +2757,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002, C003, C004, C101</t>
         </is>
       </c>
     </row>
@@ -2743,7 +2772,11 @@
           <t>EC462</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>C003, C004, C102, C302</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2756,7 +2789,11 @@
           <t>EC465</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>C002, C003, C004, C303, L408</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2769,7 +2806,11 @@
           <t>ASD352</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>C002, C004, C101, C304, C305</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2782,7 +2823,11 @@
           <t>PH454</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>C001, C003, C104</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2795,7 +2840,11 @@
           <t>DE451</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>C101, C102, C205, L407</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2808,7 +2857,11 @@
           <t>CS470</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>C001, C004, C205, L406, L408</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2821,7 +2874,11 @@
           <t>DS102</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>C003, C004, C302, L407</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2834,7 +2891,11 @@
           <t>MA452</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>C002, C101, C303, L404</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2847,7 +2908,11 @@
           <t>EC463</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>C001, C004, C202, C204, L405</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2860,7 +2925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2903,17 +2968,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -2928,24 +2993,24 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2967,118 +3032,118 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7 (Tutorial)</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B8 (Tutorial)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B6 (Tutorial)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B7 (Tutorial)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -3095,30 +3160,94 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
@@ -3737,7 +3866,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:N135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3811,6 +3940,11 @@
           <t>course</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>session_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -3838,17 +3972,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I2" t="b">
@@ -3866,12 +4000,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
           <t>DS456</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3901,19 +4040,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="b">
         <v>0</v>
       </c>
@@ -3929,12 +4064,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
           <t>EC456</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4000,6 +4140,11 @@
           <t>DS401</t>
         </is>
       </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -4017,12 +4162,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -4050,7 +4195,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -4060,7 +4205,12 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -4080,27 +4230,27 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I6" t="b">
@@ -4113,17 +4263,22 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>DS458</t>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -4143,27 +4298,27 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I7" t="b">
@@ -4176,17 +4331,22 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>CS468</t>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -4206,29 +4366,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="b">
         <v>0</v>
       </c>
@@ -4239,17 +4395,22 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>CS473</t>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -4269,7 +4430,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -4279,17 +4440,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I9" t="b">
@@ -4302,17 +4463,22 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -4337,22 +4503,22 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I10" t="b">
@@ -4365,17 +4531,22 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4400,7 +4571,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -4428,7 +4599,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -4438,7 +4609,12 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4458,27 +4634,27 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I12" t="b">
@@ -4491,17 +4667,22 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4521,27 +4702,27 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I13" t="b">
@@ -4554,17 +4735,22 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4584,27 +4770,27 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I14" t="b">
@@ -4622,12 +4808,17 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -4647,7 +4838,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -4657,19 +4848,15 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="b">
         <v>0</v>
       </c>
@@ -4680,17 +4867,22 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -4710,7 +4902,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -4743,7 +4935,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -4753,7 +4945,12 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>DS458</t>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -4778,22 +4975,22 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I17" t="b">
@@ -4806,17 +5003,22 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>CS468</t>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4841,24 +5043,20 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="b">
         <v>0</v>
       </c>
@@ -4869,17 +5067,22 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>CS473</t>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4899,7 +5102,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -4932,7 +5135,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -4942,7 +5145,12 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4962,27 +5170,27 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I20" t="b">
@@ -5000,12 +5208,17 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>DS458</t>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5025,12 +5238,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -5068,7 +5281,12 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>CS468</t>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5088,27 +5306,27 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I22" t="b">
@@ -5126,12 +5344,17 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>CS473</t>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5146,32 +5369,32 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I23" t="b">
@@ -5184,17 +5407,22 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5209,32 +5437,32 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I24" t="b">
@@ -5247,17 +5475,22 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5272,32 +5505,32 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I25" t="b">
@@ -5310,17 +5543,22 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5335,34 +5573,30 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="b">
         <v>0</v>
       </c>
@@ -5378,12 +5612,17 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5398,32 +5637,32 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I27" t="b">
@@ -5441,12 +5680,17 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>DS458</t>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5461,12 +5705,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -5499,7 +5743,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -5509,7 +5753,12 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>CS468</t>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5524,12 +5773,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -5539,17 +5788,17 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I29" t="b">
@@ -5562,17 +5811,22 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>CS473</t>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5587,32 +5841,32 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I30" t="b">
@@ -5625,17 +5879,22 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5650,34 +5909,30 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="b">
         <v>0</v>
       </c>
@@ -5688,17 +5943,22 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5713,32 +5973,32 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I32" t="b">
@@ -5751,17 +6011,22 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5776,17 +6041,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -5814,7 +6079,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -5824,7 +6089,12 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5839,32 +6109,32 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I34" t="b">
@@ -5877,17 +6147,22 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5902,32 +6177,32 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I35" t="b">
@@ -5940,17 +6215,22 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5965,34 +6245,30 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="b">
         <v>0</v>
       </c>
@@ -6003,17 +6279,22 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6028,32 +6309,32 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I37" t="b">
@@ -6066,17 +6347,22 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>DS458</t>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6091,32 +6377,32 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I38" t="b">
@@ -6129,17 +6415,22 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>CS468</t>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6154,32 +6445,32 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I39" t="b">
@@ -6192,17 +6483,22 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>CS473</t>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6217,12 +6513,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -6232,17 +6528,17 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I40" t="b">
@@ -6255,17 +6551,22 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6280,12 +6581,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -6295,17 +6596,17 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I41" t="b">
@@ -6318,17 +6619,22 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>DS458</t>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6343,32 +6649,32 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I42" t="b">
@@ -6381,17 +6687,22 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>CS468</t>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6406,55 +6717,6260 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>7</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>7</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>7</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>7</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>7</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>7</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>7</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>7</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>7</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>7</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>7</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>7</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>7</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>7</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>7</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I58" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>7</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>7</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I60" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>7</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I61" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>7</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I62" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>7</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I63" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>7</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I64" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>7</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>7</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I66" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>7</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I67" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>7</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>7</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I69" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>7</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>7</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I71" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>7</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I72" t="b">
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>7</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I73" t="b">
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>7</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I74" t="b">
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>7</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="b">
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>7</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I76" t="b">
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>7</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I77" t="b">
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>7</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I78" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>7</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>7</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>7</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I81" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>7</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>7</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I83" t="b">
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>7</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I84" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>7</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="b">
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>7</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I86" t="b">
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>7</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I87" t="b">
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>7</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="b">
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>7</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I89" t="b">
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>7</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I90" t="b">
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>7</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>Thu</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="b">
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>7</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I92" t="b">
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>7</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
         <is>
           <t>Auditorium</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>240</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>Audio/Video System</t>
         </is>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr">
+      <c r="I93" t="b">
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="K93" t="inlineStr">
         <is>
           <t>ELECTIVE_B7</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="L93" t="inlineStr">
         <is>
           <t>C004</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr">
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>7</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I94" t="b">
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
         <is>
           <t>CS473</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>7</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I95" t="b">
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>7</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I96" t="b">
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>7</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I97" t="b">
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>7</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="b">
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>7</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I99" t="b">
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>7</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I100" t="b">
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>7</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I101" t="b">
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>7</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I102" t="b">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>7</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="b">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>7</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I104" t="b">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>7</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I105" t="b">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>7</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I106" t="b">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>7</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I107" t="b">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>7</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I108" t="b">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>7</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I109" t="b">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>7</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I110" t="b">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>7</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I111" t="b">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>7</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I112" t="b">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>7</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I113" t="b">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>7</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I114" t="b">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>7</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I115" t="b">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>7</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I116" t="b">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>7</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="b">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>7</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I118" t="b">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>7</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I119" t="b">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>7</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I120" t="b">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>7</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I121" t="b">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>7</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I122" t="b">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>7</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I123" t="b">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>7</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I124" t="b">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>7</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I125" t="b">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>7</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="b">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>7</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I127" t="b">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>7</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="b">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>7</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I129" t="b">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>7</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I130" t="b">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>7</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I131" t="b">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>7</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I132" t="b">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>7</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I133" t="b">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>7</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I134" t="b">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>7</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="b">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6836,7 +13352,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-18 11:33</t>
+          <t>2026-01-19 12:24</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -6900,7 +13416,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0/36</t>
+          <t>0/16</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -6922,12 +13438,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>28.6%</t>
+          <t>22.2%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A: 28.6%, B: 28.6%</t>
+          <t>A: 22.2%, B: 22.2%</t>
         </is>
       </c>
     </row>
@@ -6949,7 +13465,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Score: 32.6/100</t>
+          <t>Score: 30.7/100</t>
         </is>
       </c>
     </row>
@@ -8385,11 +14901,11 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>EC462, EC465, ASD352, PH454, DE451</t>
+          <t>EC462, EC465, ASD352, PH454</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>

--- a/backend/output_timetables/sem7_CSE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem7_CSE_pre_mid_timetable.xlsx
@@ -2655,7 +2655,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
@@ -2672,7 +2672,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C001, C002, C003, C101</t>
+          <t>C002, C003, C004, C101</t>
         </is>
       </c>
     </row>
@@ -2723,7 +2723,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C001, C002, C004, C101</t>
+          <t>C001, C003, C004</t>
         </is>
       </c>
     </row>
@@ -2740,7 +2740,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C001, C003, C004, C101</t>
+          <t>C002, C003, C101</t>
         </is>
       </c>
     </row>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C002, C003, C004, C101</t>
+          <t>C001, C002, C004</t>
         </is>
       </c>
     </row>
@@ -2774,7 +2774,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C003, C004, C102, C302</t>
+          <t>C002, C004, C101, C104, C302, C303, L408</t>
         </is>
       </c>
     </row>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C002, C003, C004, C303, L408</t>
+          <t>C003, C004, C101, C104, C203, C303, C304, L404</t>
         </is>
       </c>
     </row>
@@ -2808,7 +2808,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C002, C004, C101, C304, C305</t>
+          <t>C002, C204, C304, C305, L404, L405, L406</t>
         </is>
       </c>
     </row>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C001, C003, C104</t>
+          <t>C001, C003, C101, C204, C205, C305, L407</t>
         </is>
       </c>
     </row>
@@ -2842,7 +2842,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C101, C102, C205, L407</t>
+          <t>C003, C004, C101, C205, C302, L402</t>
         </is>
       </c>
     </row>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C001, C004, C205, L406, L408</t>
+          <t>C002, C004, C205, L404</t>
         </is>
       </c>
     </row>
@@ -2876,7 +2876,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C003, C004, C302, L407</t>
+          <t>C001, C003, C004, C302</t>
         </is>
       </c>
     </row>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C002, C101, C303, L404</t>
+          <t>C002, C101, C104, C303, L405</t>
         </is>
       </c>
     </row>
@@ -2910,7 +2910,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C001, C004, C202, C204, L405</t>
+          <t>C001, C202, C204, C304, L407</t>
         </is>
       </c>
     </row>
@@ -3980,11 +3980,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="b">
         <v>0</v>
       </c>
@@ -4000,7 +3996,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -4040,15 +4036,19 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I3" t="b">
         <v>0</v>
       </c>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -4104,17 +4104,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I4" t="b">
@@ -4132,7 +4132,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -4167,22 +4167,22 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I5" t="b">
@@ -4200,7 +4200,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -4210,7 +4210,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4235,22 +4235,22 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I6" t="b">
@@ -4268,7 +4268,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -4278,7 +4278,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4303,7 +4303,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -4313,12 +4313,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I7" t="b">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -4346,7 +4346,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4371,20 +4371,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I8" t="b">
         <v>0</v>
       </c>
@@ -4400,7 +4404,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -4410,7 +4414,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4435,7 +4439,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -4450,7 +4454,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I9" t="b">
@@ -4468,7 +4472,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -4478,7 +4482,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4508,12 +4512,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -4536,7 +4540,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -4649,7 +4653,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -4672,7 +4676,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -4720,11 +4724,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="b">
         <v>0</v>
       </c>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -4788,11 +4788,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="b">
         <v>0</v>
       </c>
@@ -4808,7 +4804,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -4848,15 +4844,19 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I15" t="b">
         <v>0</v>
       </c>
@@ -4872,7 +4872,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -4912,17 +4912,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I16" t="b">
@@ -4940,7 +4940,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -4970,12 +4970,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -5003,7 +5003,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -5013,7 +5013,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -5038,25 +5038,29 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I18" t="b">
         <v>0</v>
       </c>
@@ -5067,17 +5071,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -5102,27 +5106,27 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I19" t="b">
@@ -5135,17 +5139,17 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>MA452</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -5170,12 +5174,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -5190,7 +5194,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I20" t="b">
@@ -5203,22 +5207,22 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>EC463</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5243,7 +5247,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -5271,7 +5275,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -5281,12 +5285,12 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>DS458</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5311,17 +5315,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -5339,22 +5343,22 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>CS468</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5379,22 +5383,22 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I23" t="b">
@@ -5407,22 +5411,22 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>CS473</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5442,27 +5446,27 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I24" t="b">
@@ -5475,17 +5479,17 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -5510,22 +5514,22 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -5543,17 +5547,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>DS458</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -5578,7 +5582,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -5607,7 +5611,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -5617,7 +5621,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>CS468</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -5642,7 +5646,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -5652,17 +5656,17 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I27" t="b">
@@ -5675,17 +5679,17 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>CS473</t>
+          <t>EC456</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -5710,27 +5714,27 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I28" t="b">
@@ -5743,17 +5747,17 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>DS401</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -5778,12 +5782,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -5793,7 +5797,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -5811,22 +5815,22 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>EC465</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5846,12 +5850,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -5864,11 +5868,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="b">
         <v>0</v>
       </c>
@@ -5879,22 +5879,22 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>DS458</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5914,25 +5914,29 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I31" t="b">
         <v>0</v>
       </c>
@@ -5943,22 +5947,22 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>PH454</t>
+          <t>CS468</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5978,27 +5982,27 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I32" t="b">
@@ -6011,22 +6015,22 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>CS473</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6046,27 +6050,27 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I33" t="b">
@@ -6079,17 +6083,17 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -6114,27 +6118,27 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I34" t="b">
@@ -6147,17 +6151,17 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>EC465</t>
+          <t>DS458</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -6182,12 +6186,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -6197,7 +6201,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -6215,17 +6219,17 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS468</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -6250,12 +6254,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -6268,7 +6272,11 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I36" t="b">
         <v>0</v>
       </c>
@@ -6279,17 +6287,17 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>PH454</t>
+          <t>CS473</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -6314,27 +6322,27 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I37" t="b">
@@ -6352,17 +6360,17 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6382,27 +6390,27 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I38" t="b">
@@ -6415,22 +6423,22 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>CS470</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6450,27 +6458,27 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I39" t="b">
@@ -6483,22 +6491,22 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>DS102</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6518,29 +6526,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="b">
         <v>0</v>
       </c>
@@ -6551,22 +6555,22 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>MA452</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6586,12 +6590,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -6601,12 +6605,12 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I41" t="b">
@@ -6619,22 +6623,22 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>EC463</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6654,22 +6658,22 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -6687,17 +6691,17 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -6722,27 +6726,27 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I43" t="b">
@@ -6755,17 +6759,17 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>EC465</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -6790,12 +6794,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -6810,7 +6814,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I44" t="b">
@@ -6823,17 +6827,17 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>MA452</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -6858,12 +6862,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -6878,7 +6882,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I45" t="b">
@@ -6891,17 +6895,17 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>PH454</t>
+          <t>EC463</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -6926,27 +6930,27 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I46" t="b">
@@ -6959,22 +6963,22 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6994,27 +6998,27 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I47" t="b">
@@ -7032,17 +7036,17 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>CS470</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7062,22 +7066,22 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -7100,17 +7104,17 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>DS102</t>
+          <t>MA452</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7130,29 +7134,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="b">
         <v>0</v>
       </c>
@@ -7168,17 +7168,17 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>MA452</t>
+          <t>EC463</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7198,27 +7198,27 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I50" t="b">
@@ -7231,22 +7231,22 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>EC463</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7266,27 +7266,27 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I51" t="b">
@@ -7304,17 +7304,17 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7334,12 +7334,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -7372,17 +7372,17 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>EC465</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7402,12 +7402,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -7440,17 +7440,17 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7470,12 +7470,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -7490,7 +7490,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I54" t="b">
@@ -7508,17 +7508,17 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>PH454</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7538,12 +7538,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -7553,7 +7553,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -7576,12 +7576,12 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -7606,27 +7606,27 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I56" t="b">
@@ -7644,17 +7644,17 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7674,27 +7674,27 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I57" t="b">
@@ -7712,17 +7712,17 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>EC465</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7742,27 +7742,27 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I58" t="b">
@@ -7780,17 +7780,17 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7810,25 +7810,29 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I59" t="b">
         <v>0</v>
       </c>
@@ -7844,17 +7848,17 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>PH454</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7874,12 +7878,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -7889,12 +7893,12 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I60" t="b">
@@ -7912,17 +7916,17 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7942,12 +7946,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -7957,7 +7961,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -7975,17 +7979,17 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>CS470</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -8010,12 +8014,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -8025,12 +8029,12 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I62" t="b">
@@ -8043,17 +8047,17 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>DS102</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -8078,12 +8082,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -8093,7 +8097,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -8111,17 +8115,17 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>MA452</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -8146,27 +8150,27 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I64" t="b">
@@ -8179,17 +8183,17 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>EC463</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -8219,22 +8223,22 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I65" t="b">
@@ -8252,7 +8256,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -8262,7 +8266,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8287,7 +8291,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -8297,14 +8301,10 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="b">
         <v>0</v>
       </c>
@@ -8320,7 +8320,7 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
@@ -8330,7 +8330,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8355,22 +8355,22 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I67" t="b">
@@ -8388,7 +8388,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
@@ -8398,7 +8398,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8423,20 +8423,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr"/>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I68" t="b">
         <v>0</v>
       </c>
@@ -8452,7 +8456,7 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
@@ -8462,7 +8466,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8500,11 +8504,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="b">
         <v>0</v>
       </c>
@@ -8520,7 +8520,7 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
@@ -8560,15 +8560,19 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I70" t="b">
         <v>0</v>
       </c>
@@ -8584,7 +8588,7 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
@@ -8624,17 +8628,17 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I71" t="b">
@@ -8652,7 +8656,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -8687,17 +8691,17 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -8720,7 +8724,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -8730,7 +8734,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8755,22 +8759,22 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I73" t="b">
@@ -8788,7 +8792,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
@@ -8798,7 +8802,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8823,22 +8827,22 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I74" t="b">
@@ -8856,7 +8860,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -8866,7 +8870,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8891,20 +8895,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I75" t="b">
         <v>0</v>
       </c>
@@ -8920,7 +8928,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -8930,7 +8938,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8955,17 +8963,17 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -8988,7 +8996,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -8998,7 +9006,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9028,17 +9036,17 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I77" t="b">
@@ -9056,7 +9064,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
@@ -9096,17 +9104,17 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I78" t="b">
@@ -9124,7 +9132,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -9169,7 +9177,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -9192,7 +9200,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -9240,11 +9248,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="b">
         <v>0</v>
       </c>
@@ -9260,7 +9264,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
@@ -9308,11 +9312,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="b">
         <v>0</v>
       </c>
@@ -9328,7 +9328,7 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
@@ -9368,15 +9368,19 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I82" t="b">
         <v>0</v>
       </c>
@@ -9392,7 +9396,7 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
@@ -9432,17 +9436,17 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I83" t="b">
@@ -9460,7 +9464,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -9490,27 +9494,27 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I84" t="b">
@@ -9523,17 +9527,17 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -9558,25 +9562,29 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I85" t="b">
         <v>0</v>
       </c>
@@ -9587,17 +9595,17 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -9622,27 +9630,27 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I86" t="b">
@@ -9655,17 +9663,17 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>MA452</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -9690,27 +9698,27 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I87" t="b">
@@ -9723,22 +9731,22 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>EC463</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9763,20 +9771,24 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I88" t="b">
         <v>0</v>
       </c>
@@ -9787,22 +9799,22 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>DS458</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9827,7 +9839,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -9842,7 +9854,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I89" t="b">
@@ -9855,22 +9867,22 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>CS468</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9895,22 +9907,22 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I90" t="b">
@@ -9923,22 +9935,22 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>CS473</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9958,12 +9970,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -9973,10 +9985,14 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I91" t="b">
         <v>0</v>
       </c>
@@ -9987,17 +10003,17 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -10022,12 +10038,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -10037,12 +10053,12 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I92" t="b">
@@ -10055,17 +10071,17 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>DS458</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -10090,7 +10106,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -10100,19 +10116,15 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="b">
         <v>0</v>
       </c>
@@ -10123,17 +10135,17 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>CS468</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -10158,7 +10170,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -10168,17 +10180,17 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I94" t="b">
@@ -10191,17 +10203,17 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>CS473</t>
+          <t>EC456</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -10226,12 +10238,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -10259,7 +10271,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -10269,7 +10281,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>DS401</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -10294,22 +10306,22 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -10327,22 +10339,22 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>EC465</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -10362,12 +10374,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -10395,7 +10407,7 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -10405,12 +10417,12 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>DS458</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -10430,12 +10442,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -10445,10 +10457,14 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I98" t="b">
         <v>0</v>
       </c>
@@ -10459,22 +10475,22 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>PH454</t>
+          <t>CS468</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -10494,22 +10510,22 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -10527,22 +10543,22 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>CS473</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -10562,22 +10578,22 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -10595,17 +10611,17 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -10630,27 +10646,27 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I101" t="b">
@@ -10663,17 +10679,17 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>EC465</t>
+          <t>DS458</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
@@ -10698,27 +10714,27 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I102" t="b">
@@ -10731,17 +10747,17 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS468</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
@@ -10766,12 +10782,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -10784,7 +10800,11 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr"/>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I103" t="b">
         <v>0</v>
       </c>
@@ -10795,17 +10815,17 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>PH454</t>
+          <t>CS473</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
@@ -10830,27 +10850,27 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I104" t="b">
@@ -10868,17 +10888,17 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -10898,27 +10918,27 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I105" t="b">
@@ -10931,22 +10951,22 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>CS470</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -10966,12 +10986,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -10981,7 +11001,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -10999,22 +11019,22 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>DS102</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -11034,12 +11054,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -11052,11 +11072,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="b">
         <v>0</v>
       </c>
@@ -11067,22 +11083,22 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>MA452</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -11102,27 +11118,27 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I108" t="b">
@@ -11135,22 +11151,22 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>EC463</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -11170,12 +11186,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -11190,7 +11206,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I109" t="b">
@@ -11203,17 +11219,17 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
@@ -11238,12 +11254,12 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -11258,7 +11274,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I110" t="b">
@@ -11271,17 +11287,17 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>EC465</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
@@ -11306,12 +11322,12 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -11339,17 +11355,17 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>MA452</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
@@ -11374,27 +11390,27 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I112" t="b">
@@ -11407,17 +11423,17 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>PH454</t>
+          <t>EC463</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
@@ -11442,27 +11458,27 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I113" t="b">
@@ -11475,22 +11491,22 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -11510,27 +11526,27 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I114" t="b">
@@ -11548,17 +11564,17 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>CS470</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -11578,12 +11594,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -11593,7 +11609,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -11616,17 +11632,17 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>DS102</t>
+          <t>MA452</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -11646,12 +11662,12 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -11664,11 +11680,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="b">
         <v>0</v>
       </c>
@@ -11684,17 +11696,17 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>MA452</t>
+          <t>EC463</t>
         </is>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -11714,25 +11726,29 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I117" t="b">
         <v>0</v>
       </c>
@@ -11743,22 +11759,22 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>EC463</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -11778,12 +11794,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -11798,7 +11814,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I118" t="b">
@@ -11816,17 +11832,17 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -11846,12 +11862,12 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -11884,17 +11900,17 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>EC465</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -11914,12 +11930,12 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -11957,12 +11973,12 @@
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -11982,12 +11998,12 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -12025,12 +12041,12 @@
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>PH454</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -12050,12 +12066,12 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -12065,12 +12081,12 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I122" t="b">
@@ -12088,12 +12104,12 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="N122" t="inlineStr">
@@ -12118,27 +12134,27 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I123" t="b">
@@ -12156,17 +12172,17 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -12186,27 +12202,27 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I124" t="b">
@@ -12224,17 +12240,17 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>EC465</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -12254,27 +12270,27 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I125" t="b">
@@ -12292,17 +12308,17 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -12322,25 +12338,29 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I126" t="b">
         <v>0</v>
       </c>
@@ -12356,17 +12376,17 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>PH454</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -12386,12 +12406,12 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -12424,17 +12444,17 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -12454,25 +12474,29 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I128" t="b">
         <v>0</v>
       </c>
@@ -12483,17 +12507,17 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>CS470</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">
@@ -12518,27 +12542,27 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I129" t="b">
@@ -12551,17 +12575,17 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>DS102</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N129" t="inlineStr">
@@ -12586,12 +12610,12 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -12606,7 +12630,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I130" t="b">
@@ -12619,17 +12643,17 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>MA452</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="N130" t="inlineStr">
@@ -12654,12 +12678,12 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -12687,17 +12711,17 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>EC463</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
@@ -12727,22 +12751,22 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I132" t="b">
@@ -12760,7 +12784,7 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
@@ -12770,7 +12794,7 @@
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -12795,22 +12819,22 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I133" t="b">
@@ -12828,7 +12852,7 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
@@ -12838,7 +12862,7 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -12863,17 +12887,17 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -12896,7 +12920,7 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
@@ -12906,7 +12930,7 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -12931,20 +12955,24 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I135" t="b">
         <v>0</v>
       </c>
@@ -12960,7 +12988,7 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
@@ -12970,7 +12998,7 @@
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem7_CSE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem7_CSE_pre_mid_timetable.xlsx
@@ -2809,7 +2809,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C001, C004, C101, C102</t>
+          <t>C001, C002</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C001, C002, C104, C202</t>
+          <t>C101, C102</t>
         </is>
       </c>
     </row>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C002, C104, C202, C203</t>
+          <t>C104, C205</t>
         </is>
       </c>
     </row>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C101, C102, C203, C204</t>
+          <t>C202, C203</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C004, C204, C205</t>
+          <t>C004, C204</t>
         </is>
       </c>
     </row>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C002, C004, C102</t>
+          <t>C004, C102</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C001, C101, C104</t>
+          <t>C001, C104</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C002, C102, C202</t>
+          <t>C002, C202</t>
         </is>
       </c>
     </row>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C101, C104, C203</t>
+          <t>C101, C203</t>
         </is>
       </c>
     </row>
@@ -4254,7 +4254,11 @@
           <t>120</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J5" t="b">
         <v>0</v>
       </c>
@@ -4270,7 +4274,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -4318,12 +4322,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -4346,7 +4350,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -4404,7 +4408,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J7" t="b">
@@ -4422,7 +4426,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -4480,7 +4484,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J8" t="b">
@@ -4498,7 +4502,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -5146,17 +5150,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J17" t="b">
@@ -5174,7 +5178,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -5222,19 +5226,15 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="b">
         <v>0</v>
       </c>
@@ -5250,7 +5250,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -5298,12 +5298,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -5326,7 +5326,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -5402,7 +5402,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -5458,7 +5458,11 @@
           <t>120</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J21" t="b">
         <v>0</v>
       </c>
@@ -5474,7 +5478,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -5522,12 +5526,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -5550,7 +5554,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -5608,7 +5612,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J23" t="b">
@@ -5626,7 +5630,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -5684,7 +5688,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J24" t="b">
@@ -5702,7 +5706,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -6650,12 +6654,12 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -6678,7 +6682,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -6754,7 +6758,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -6812,7 +6816,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J39" t="b">
@@ -6830,7 +6834,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -6954,17 +6958,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -6982,7 +6986,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -7030,17 +7034,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J42" t="b">
@@ -7058,7 +7062,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -7106,19 +7110,15 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="b">
         <v>0</v>
       </c>
@@ -7134,7 +7134,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -7182,12 +7182,12 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -7210,7 +7210,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -7286,7 +7286,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -7334,17 +7334,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J46" t="b">
@@ -7362,7 +7362,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -7410,19 +7410,15 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="b">
         <v>0</v>
       </c>
@@ -7438,7 +7434,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -7486,12 +7482,12 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -7514,7 +7510,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -7572,7 +7568,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J49" t="b">
@@ -7590,7 +7586,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -7866,19 +7862,15 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="b">
         <v>0</v>
       </c>
@@ -7894,7 +7886,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -7970,7 +7962,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -8028,7 +8020,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J55" t="b">
@@ -8046,7 +8038,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -8104,7 +8096,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J56" t="b">
@@ -8122,7 +8114,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -8198,7 +8190,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -8778,17 +8770,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J65" t="b">
@@ -8806,7 +8798,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -8854,15 +8846,19 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J66" t="b">
         <v>0</v>
       </c>
@@ -8878,7 +8874,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -9078,19 +9074,15 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="b">
         <v>0</v>
       </c>
@@ -9106,7 +9098,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -9182,7 +9174,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -9240,7 +9232,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J71" t="b">
@@ -9258,7 +9250,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -9316,7 +9308,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J72" t="b">
@@ -9334,7 +9326,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -9410,7 +9402,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -10294,19 +10286,15 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="b">
         <v>0</v>
       </c>
@@ -10322,7 +10310,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -10370,15 +10358,19 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J86" t="b">
         <v>0</v>
       </c>
@@ -10394,7 +10386,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -10442,12 +10434,12 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -10470,7 +10462,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -10546,7 +10538,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -10622,7 +10614,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -10670,17 +10662,17 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J90" t="b">
@@ -10698,7 +10690,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -10746,15 +10738,19 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J91" t="b">
         <v>0</v>
       </c>
@@ -10770,7 +10766,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -10970,17 +10966,17 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J94" t="b">
@@ -10998,7 +10994,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -11046,15 +11042,19 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J95" t="b">
         <v>0</v>
       </c>
@@ -11070,7 +11070,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -11118,12 +11118,12 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -11146,7 +11146,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -11204,7 +11204,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J97" t="b">
@@ -11222,7 +11222,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -11617,7 +11617,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-26 01:05</t>
+          <t>2026-01-26 12:46</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">

--- a/backend/output_timetables/sem7_CSE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem7_CSE_pre_mid_timetable.xlsx
@@ -2690,7 +2690,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004, C101</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C001, C102</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C002, C104</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C004, C102</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C001, C104</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C002, C202</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C101, C203</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C001, C002</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C101, C102</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C104, C205</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C202, C203</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C004, C204</t>
+          <t>C101, C202</t>
         </is>
       </c>
     </row>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C004, C102</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C001, C104</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C002, C202</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C101, C203</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -4022,17 +4022,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J2" t="b">
@@ -4050,7 +4050,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -4098,15 +4098,19 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J3" t="b">
         <v>0</v>
       </c>
@@ -4122,7 +4126,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -4170,12 +4174,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -4198,7 +4202,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -4246,12 +4250,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -4274,7 +4278,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -4426,7 +4430,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -4484,7 +4488,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J8" t="b">
@@ -4502,7 +4506,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -4550,17 +4554,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J9" t="b">
@@ -4578,7 +4582,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -4626,17 +4630,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J10" t="b">
@@ -4654,7 +4658,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -4702,15 +4706,19 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J11" t="b">
         <v>0</v>
       </c>
@@ -4726,7 +4734,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -4774,12 +4782,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -4802,7 +4810,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -4878,7 +4886,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -4926,17 +4934,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J14" t="b">
@@ -4954,7 +4962,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -5002,15 +5010,19 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J15" t="b">
         <v>0</v>
       </c>
@@ -5026,7 +5038,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -5074,12 +5086,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -5102,7 +5114,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -5150,17 +5162,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J17" t="b">
@@ -5178,7 +5190,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -5226,15 +5238,19 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J18" t="b">
         <v>0</v>
       </c>
@@ -5250,7 +5266,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -5298,12 +5314,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -5326,7 +5342,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -5402,7 +5418,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -5450,12 +5466,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -5478,7 +5494,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -5630,7 +5646,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -5688,7 +5704,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J24" t="b">
@@ -5706,7 +5722,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -5754,17 +5770,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J25" t="b">
@@ -5782,7 +5798,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -5830,17 +5846,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J26" t="b">
@@ -5858,7 +5874,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -5906,15 +5922,19 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J27" t="b">
         <v>0</v>
       </c>
@@ -5930,7 +5950,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -5978,12 +5998,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -6006,7 +6026,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -6054,17 +6074,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J29" t="b">
@@ -6082,7 +6102,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -6130,15 +6150,19 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J30" t="b">
         <v>0</v>
       </c>
@@ -6154,7 +6178,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -6202,12 +6226,12 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -6230,7 +6254,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -6306,7 +6330,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -6354,17 +6378,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J33" t="b">
@@ -6382,7 +6406,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -6430,15 +6454,19 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J34" t="b">
         <v>0</v>
       </c>
@@ -6454,7 +6482,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -6502,12 +6530,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -6530,7 +6558,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -6606,7 +6634,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -6654,12 +6682,12 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -6682,7 +6710,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -6834,7 +6862,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -6892,7 +6920,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J40" t="b">
@@ -6910,7 +6938,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -6958,17 +6986,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -6986,7 +7014,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -7034,17 +7062,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J42" t="b">
@@ -7062,7 +7090,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -7110,15 +7138,19 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J43" t="b">
         <v>0</v>
       </c>
@@ -7134,7 +7166,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -7182,12 +7214,12 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -7210,7 +7242,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -7286,7 +7318,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -7334,17 +7366,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J46" t="b">
@@ -7362,7 +7394,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -7410,15 +7442,19 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J47" t="b">
         <v>0</v>
       </c>
@@ -7434,7 +7470,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -7482,12 +7518,12 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -7510,7 +7546,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -7586,7 +7622,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -7862,15 +7898,19 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J53" t="b">
         <v>0</v>
       </c>
@@ -7886,7 +7926,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -7962,7 +8002,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -8020,7 +8060,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J55" t="b">
@@ -8038,7 +8078,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -8114,7 +8154,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -8172,7 +8212,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J57" t="b">
@@ -8190,7 +8230,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -8266,7 +8306,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -8342,7 +8382,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -8418,7 +8458,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -8476,7 +8516,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J61" t="b">
@@ -8494,7 +8534,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -8798,7 +8838,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -8874,7 +8914,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -8950,7 +8990,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -9008,7 +9048,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J68" t="b">
@@ -9026,7 +9066,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -9074,15 +9114,19 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J69" t="b">
         <v>0</v>
       </c>
@@ -9098,7 +9142,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -9174,7 +9218,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -9232,7 +9276,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J71" t="b">
@@ -9250,7 +9294,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -9326,7 +9370,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -9384,7 +9428,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J73" t="b">
@@ -9402,7 +9446,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -9706,7 +9750,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -9782,7 +9826,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -9858,7 +9902,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -9916,7 +9960,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J80" t="b">
@@ -9934,7 +9978,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -10010,7 +10054,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -10086,7 +10130,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -10162,7 +10206,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -10220,7 +10264,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J84" t="b">
@@ -10238,7 +10282,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -10286,15 +10330,19 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J85" t="b">
         <v>0</v>
       </c>
@@ -10310,7 +10358,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -10386,7 +10434,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -10444,7 +10492,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J87" t="b">
@@ -10462,7 +10510,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -10538,7 +10586,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -10596,7 +10644,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J89" t="b">
@@ -10614,7 +10662,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -10690,7 +10738,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -10766,7 +10814,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -10842,7 +10890,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -10900,7 +10948,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J93" t="b">
@@ -10918,7 +10966,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -10994,7 +11042,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -11070,7 +11118,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -11146,7 +11194,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -11204,7 +11252,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J97" t="b">
@@ -11222,7 +11270,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -11617,7 +11665,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-26 12:46</t>
+          <t>2026-01-26 21:32</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
